--- a/public/data/yield_loss/yield_table_mozambique.xlsx
+++ b/public/data/yield_loss/yield_table_mozambique.xlsx
@@ -1806,7 +1806,7 @@
         <v>0.56</v>
       </c>
       <c r="L5" t="n">
-        <v>15.47</v>
+        <v>15.46</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>353.54</v>
+        <v>404.46</v>
       </c>
       <c r="G17" t="n">
         <v>838.76</v>
@@ -2763,25 +2763,25 @@
         <v>0.12</v>
       </c>
       <c r="K17" t="n">
-        <v>46.4</v>
+        <v>58.83</v>
       </c>
       <c r="L17" t="n">
-        <v>229.37</v>
+        <v>265.67</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1812.63</v>
+        <v>1855.54</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>14.07</v>
+        <v>14.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.54</v>
+        <v>50.21</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>10.04</v>
+        <v>10.23</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>126.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1110.2</v>
+        <v>1106.32</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>79.52</v>
+        <v>82.16</v>
       </c>
       <c r="G18" t="n">
         <v>23.18</v>
@@ -2843,10 +2843,10 @@
         <v>0.01</v>
       </c>
       <c r="K18" t="n">
-        <v>7.02</v>
+        <v>7.64</v>
       </c>
       <c r="L18" t="n">
-        <v>29.11</v>
+        <v>30.27</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>841.88</v>
+        <v>997.25</v>
       </c>
       <c r="G24" t="n">
         <v>3209.58</v>
@@ -3323,25 +3323,25 @@
         <v>0.53</v>
       </c>
       <c r="K24" t="n">
-        <v>177.76</v>
+        <v>246.89</v>
       </c>
       <c r="L24" t="n">
-        <v>792.69</v>
+        <v>929.1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>5885.2</v>
+        <v>5714.14</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>69.74</v>
+        <v>68.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.63</v>
+        <v>126.72</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>128.4</v>
+        <v>125.67</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>11.39</v>
       </c>
       <c r="W24" t="n">
-        <v>2872.48</v>
+        <v>2864.7</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>418</v>
+        <v>477.28</v>
       </c>
       <c r="G27" t="n">
         <v>924.52</v>
@@ -3563,25 +3563,25 @@
         <v>0.13</v>
       </c>
       <c r="K27" t="n">
-        <v>48.54</v>
+        <v>62.96</v>
       </c>
       <c r="L27" t="n">
-        <v>275.16</v>
+        <v>318.08</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2358.4</v>
+        <v>2370.08</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>16.89</v>
+        <v>16.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.57</v>
+        <v>46.6</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>12.03</v>
+        <v>12.06</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0.55</v>
       </c>
       <c r="W27" t="n">
-        <v>1285.56</v>
+        <v>1283.52</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3643,10 +3643,10 @@
         <v>0.02</v>
       </c>
       <c r="K28" t="n">
-        <v>12.81</v>
+        <v>13.02</v>
       </c>
       <c r="L28" t="n">
-        <v>76.76</v>
+        <v>76.06</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3803,22 +3803,22 @@
         <v>0.06</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31</v>
+        <v>54.2</v>
       </c>
       <c r="L30" t="n">
-        <v>426.4</v>
+        <v>457.64</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>894.93</v>
+        <v>890.73</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.8</v>
+        <v>19.72</v>
       </c>
       <c r="Q30" t="n">
         <v>5.4</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>63.35</v>
+        <v>63.12</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.82</v>
+        <v>30.03</v>
       </c>
       <c r="G31" t="n">
         <v>7061.24</v>
@@ -3883,25 +3883,25 @@
         <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>241.22</v>
+        <v>442.13</v>
       </c>
       <c r="L31" t="n">
-        <v>1184.03</v>
+        <v>1650.28</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5288.07</v>
+        <v>5258.05</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>165.11</v>
+        <v>164.73</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.94</v>
+        <v>102.97</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>519.37</v>
+        <v>517.49</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2000.48</v>
+        <v>1937.68</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3963,25 +3963,25 @@
         <v>0.01</v>
       </c>
       <c r="K32" t="n">
-        <v>5.98</v>
+        <v>7.61</v>
       </c>
       <c r="L32" t="n">
-        <v>16.6</v>
+        <v>19.72</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>42.81</v>
+        <v>43.94</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.21</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.97</v>
+        <v>6.11</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>26.67</v>
+        <v>26.61</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4043,10 +4043,10 @@
         <v>0.02</v>
       </c>
       <c r="K33" t="n">
-        <v>13.91</v>
+        <v>15.82</v>
       </c>
       <c r="L33" t="n">
-        <v>262.85</v>
+        <v>274.09</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>1.76</v>
       </c>
       <c r="L34" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -4203,25 +4203,25 @@
         <v>0.92</v>
       </c>
       <c r="K35" t="n">
-        <v>677.87</v>
+        <v>771.32</v>
       </c>
       <c r="L35" t="n">
-        <v>3144.36</v>
+        <v>2792.56</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>7138.1</v>
+        <v>6743.09</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>241.28</v>
+        <v>228.34</v>
       </c>
       <c r="Q35" t="n">
-        <v>148.98</v>
+        <v>141.09</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>696.54</v>
+        <v>659.45</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.18</v>
+        <v>2641.44</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -4283,25 +4283,25 @@
         <v>0.38</v>
       </c>
       <c r="K36" t="n">
-        <v>178.21</v>
+        <v>255.77</v>
       </c>
       <c r="L36" t="n">
-        <v>1598.05</v>
+        <v>1894.65</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>4552.58</v>
+        <v>4484.4</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>100.03</v>
+        <v>98.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.39</v>
+        <v>33.94</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>330.01</v>
+        <v>325.08</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1244.51</v>
+        <v>1236.38</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="G37" t="n">
         <v>1804.3</v>
@@ -4363,25 +4363,25 @@
         <v>0.68</v>
       </c>
       <c r="K37" t="n">
-        <v>260.12</v>
+        <v>370.88</v>
       </c>
       <c r="L37" t="n">
-        <v>384.52</v>
+        <v>485.45</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1870.15</v>
+        <v>1831.52</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>108.64</v>
+        <v>106.67</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.94</v>
+        <v>72.63</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>321.45</v>
+        <v>315.02</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1002.75</v>
+        <v>992.41</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4443,25 +4443,25 @@
         <v>0.16</v>
       </c>
       <c r="K38" t="n">
-        <v>89.29</v>
+        <v>134.29</v>
       </c>
       <c r="L38" t="n">
-        <v>251.09</v>
+        <v>289.75</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>652.47</v>
+        <v>640.44</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>38.28</v>
+        <v>37.29</v>
       </c>
       <c r="Q38" t="n">
-        <v>25.83</v>
+        <v>25.05</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>100.47</v>
+        <v>97.87</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>401.35</v>
+        <v>401.29</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>150.26</v>
+        <v>189.51</v>
       </c>
       <c r="G39" t="n">
         <v>9942.07</v>
@@ -4523,25 +4523,25 @@
         <v>0.87</v>
       </c>
       <c r="K39" t="n">
-        <v>374.68</v>
+        <v>531.97</v>
       </c>
       <c r="L39" t="n">
-        <v>2538.58</v>
+        <v>2996.94</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>8886.03</v>
+        <v>8783.86</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>199.49</v>
+        <v>197.37</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.36</v>
+        <v>118.2</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>648.17</v>
+        <v>641.3</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>2703.39</v>
+        <v>2661.43</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>263.41</v>
+        <v>258.71</v>
       </c>
       <c r="G40" t="n">
         <v>9.05</v>
@@ -4603,10 +4603,10 @@
         <v>3.79</v>
       </c>
       <c r="K40" t="n">
-        <v>20.27</v>
+        <v>20.02</v>
       </c>
       <c r="L40" t="n">
-        <v>171.15</v>
+        <v>170.02</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0.01</v>
       </c>
       <c r="F45" t="n">
-        <v>105.91</v>
+        <v>105.88</v>
       </c>
       <c r="G45" t="n">
         <v>0.87</v>
@@ -5006,7 +5006,7 @@
         <v>6.4</v>
       </c>
       <c r="L45" t="n">
-        <v>188.05</v>
+        <v>187.94</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>3.32</v>
       </c>
       <c r="L47" t="n">
-        <v>95.08</v>
+        <v>95.07</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>35.97</v>
+        <v>40.03</v>
       </c>
       <c r="G51" t="n">
         <v>65.9</v>
@@ -5483,16 +5483,16 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>16.62</v>
+        <v>21.03</v>
       </c>
       <c r="L51" t="n">
-        <v>43.93</v>
+        <v>50.84</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>263.64</v>
+        <v>263.36</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0.78</v>
       </c>
       <c r="Q51" t="n">
-        <v>70.73</v>
+        <v>70.66</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>14.6</v>
+        <v>15.33</v>
       </c>
       <c r="G52" t="n">
         <v>13.98</v>
@@ -5563,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>8.86</v>
+        <v>9.8</v>
       </c>
       <c r="L52" t="n">
-        <v>18.45</v>
+        <v>19.43</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>5.44</v>
+        <v>5.27</v>
       </c>
       <c r="G53" t="n">
         <v>3.98</v>
@@ -5643,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="L53" t="n">
-        <v>11.53</v>
+        <v>11.17</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>7.95</v>
+        <v>5.56</v>
       </c>
       <c r="G79" t="n">
         <v>46.05</v>
@@ -7723,25 +7723,25 @@
         <v>7.04</v>
       </c>
       <c r="K79" t="n">
-        <v>6.03</v>
+        <v>5.1</v>
       </c>
       <c r="L79" t="n">
-        <v>16.25</v>
+        <v>11.52</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>326.31</v>
+        <v>303.43</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>6.46</v>
+        <v>6</v>
       </c>
       <c r="Q79" t="n">
-        <v>71.85</v>
+        <v>66.26</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>56.58</v>
+        <v>52.57</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>6.51</v>
+        <v>4.84</v>
       </c>
       <c r="G83" t="n">
         <v>20.92</v>
@@ -8043,10 +8043,10 @@
         <v>4.12</v>
       </c>
       <c r="K83" t="n">
-        <v>4.88</v>
+        <v>4.04</v>
       </c>
       <c r="L83" t="n">
-        <v>12.92</v>
+        <v>9.92</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>25.7</v>
+        <v>21.56</v>
       </c>
       <c r="G87" t="n">
         <v>74.93</v>
@@ -8363,25 +8363,25 @@
         <v>16.14</v>
       </c>
       <c r="K87" t="n">
-        <v>17.04</v>
+        <v>15.25</v>
       </c>
       <c r="L87" t="n">
-        <v>54.67</v>
+        <v>45.91</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>996.9</v>
+        <v>974.02</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>13.43</v>
+        <v>12.97</v>
       </c>
       <c r="Q87" t="n">
-        <v>269.36</v>
+        <v>263.77</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>174.63</v>
+        <v>170.62</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>10.19</v>
       </c>
       <c r="L96" t="n">
-        <v>43.35</v>
+        <v>43.34</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>24.44</v>
+        <v>24.38</v>
       </c>
       <c r="G101" t="n">
         <v>5.24</v>
@@ -9483,10 +9483,10 @@
         <v>10.23</v>
       </c>
       <c r="K101" t="n">
-        <v>51.74</v>
+        <v>51.71</v>
       </c>
       <c r="L101" t="n">
-        <v>76.11</v>
+        <v>75.99</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>118.56</v>
+        <v>118.53</v>
       </c>
       <c r="G108" t="n">
         <v>0.15</v>
@@ -10046,7 +10046,7 @@
         <v>3.86</v>
       </c>
       <c r="L108" t="n">
-        <v>83.98</v>
+        <v>83.97</v>
       </c>
       <c r="M108" t="n">
         <v>0.13</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>181.36</v>
+        <v>178.17</v>
       </c>
       <c r="G121" t="n">
         <v>222.38</v>
@@ -11083,10 +11083,10 @@
         <v>0.24</v>
       </c>
       <c r="K121" t="n">
-        <v>7.09</v>
+        <v>6.97</v>
       </c>
       <c r="L121" t="n">
-        <v>142.8</v>
+        <v>135.11</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>108.33</v>
+        <v>108.12</v>
       </c>
       <c r="G128" t="n">
         <v>24.41</v>
@@ -11643,10 +11643,10 @@
         <v>0.08</v>
       </c>
       <c r="K128" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="L128" t="n">
-        <v>62.45</v>
+        <v>62.16</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
